--- a/莆田项目部公共开支明细表数据库版本20170619起.xlsx
+++ b/莆田项目部公共开支明细表数据库版本20170619起.xlsx
@@ -289,12 +289,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>林迪南、郑景祥、陈扬奇、王恭东</t>
-  </si>
-  <si>
-    <t>林迪南、郑景祥、陈扬奇、王恭东、黄学漾、王兆林</t>
-  </si>
-  <si>
     <t>林迪南</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -342,10 +336,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>林迪南、郑景祥、陈扬奇、王曦强、王恭东、黄学漾、王兆林、赖苍林</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>王兆林</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -409,10 +399,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>林迪南、郑景祥、陈扬奇、王曦强、  王恭东、黄学漾、王兆林、魏初材、吴绍康</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>王曦强</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -808,10 +794,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>莆田</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -981,6 +963,22 @@
   </si>
   <si>
     <t>林益星、钟寒烨、王曦强、戴杰斌、王兆林、吴绍康</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林迪南、郑景祥、陈杨奇、王恭东</t>
+  </si>
+  <si>
+    <t>林迪南、郑景祥、陈杨奇、王恭东、黄学漾、王兆林</t>
+  </si>
+  <si>
+    <t>林迪南、郑景祥、陈杨奇、王曦强、王恭东、黄学漾、王兆林、赖苍林</t>
+  </si>
+  <si>
+    <t>林迪南、郑景祥、陈杨奇、王曦强、  王恭东、黄学漾、王兆林、魏初材、吴绍康</t>
+  </si>
+  <si>
+    <t>福州</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1338,8 +1336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1382,7 +1380,7 @@
         <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>234</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>32</v>
@@ -1403,7 +1401,7 @@
         <v>571.29999999999995</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>234</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>57</v>
@@ -1424,13 +1422,13 @@
         <v>195</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>235</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>59</v>
       </c>
       <c r="F4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1445,13 +1443,13 @@
         <v>236</v>
       </c>
       <c r="D5" t="s">
-        <v>78</v>
+        <v>236</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1466,13 +1464,13 @@
         <v>156.78</v>
       </c>
       <c r="D6" t="s">
-        <v>95</v>
+        <v>237</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" t="s">
         <v>75</v>
-      </c>
-      <c r="F6" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1487,13 +1485,13 @@
         <v>135.30000000000001</v>
       </c>
       <c r="D7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1508,13 +1506,13 @@
         <v>124.5</v>
       </c>
       <c r="D8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1529,10 +1527,10 @@
         <v>244.97</v>
       </c>
       <c r="D9" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1547,13 +1545,13 @@
         <v>162</v>
       </c>
       <c r="D10" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F10" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1568,10 +1566,10 @@
         <v>27.5</v>
       </c>
       <c r="D11" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -1586,13 +1584,13 @@
         <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F12" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1607,10 +1605,10 @@
         <v>227.4</v>
       </c>
       <c r="D13" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1625,10 +1623,10 @@
         <v>252.79000000000002</v>
       </c>
       <c r="D14" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -1643,10 +1641,10 @@
         <v>45.8</v>
       </c>
       <c r="D15" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1661,10 +1659,10 @@
         <v>143</v>
       </c>
       <c r="D16" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1679,7 +1677,7 @@
         <v>142</v>
       </c>
       <c r="D17" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>3</v>
@@ -1696,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>3</v>
@@ -1713,10 +1711,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1730,10 +1728,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1747,10 +1745,10 @@
         <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1765,13 +1763,13 @@
         <v>121.9</v>
       </c>
       <c r="D22" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F22" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1785,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1800,13 +1798,13 @@
         <v>272.89999999999998</v>
       </c>
       <c r="D24" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F24" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1817,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1831,10 +1829,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -2009,7 +2007,7 @@
         <v>20170626</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D9">
         <v>244.97</v>
@@ -2023,7 +2021,7 @@
         <v>20170627</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D10">
         <f>55+32+75</f>
@@ -2038,7 +2036,7 @@
         <v>20170628</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D11">
         <v>27.5</v>
@@ -2052,7 +2050,7 @@
         <v>20170629</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D12">
         <v>28</v>
@@ -2066,7 +2064,7 @@
         <v>20170630</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D13">
         <f>120.4+68+5+34</f>
@@ -2130,7 +2128,7 @@
         <v>20170705</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -2185,7 +2183,7 @@
         <v>20170710</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D23">
         <v>272.89999999999998</v>
@@ -2196,7 +2194,7 @@
         <v>20170711</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D24">
         <f>8.9+12+252</f>
@@ -2335,7 +2333,7 @@
         <v>20170619</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -2407,7 +2405,7 @@
         <v>20170620</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>5</v>
@@ -2479,7 +2477,7 @@
         <v>20170621</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>5</v>
@@ -2569,7 +2567,7 @@
         <v>20170622</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>5</v>
@@ -2607,7 +2605,7 @@
         <v>20170622</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>5</v>
@@ -2625,7 +2623,7 @@
         <v>20170622</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>5</v>
@@ -2679,7 +2677,7 @@
         <v>20170623</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>5</v>
@@ -2697,7 +2695,7 @@
         <v>20170623</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>5</v>
@@ -2715,7 +2713,7 @@
         <v>20170623</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>5</v>
@@ -2733,10 +2731,10 @@
         <v>20170623</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E27" s="1">
         <v>14</v>
@@ -2768,7 +2766,7 @@
         <v>20170624</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>5</v>
@@ -2786,7 +2784,7 @@
         <v>20170624</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>5</v>
@@ -2804,7 +2802,7 @@
         <v>20170624</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>5</v>
@@ -2840,10 +2838,10 @@
         <v>20170625</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E33" s="1">
         <f t="shared" ref="E33:E36" si="6">88/5</f>
@@ -2858,7 +2856,7 @@
         <v>20170625</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>5</v>
@@ -2876,7 +2874,7 @@
         <v>20170625</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>5</v>
@@ -2894,7 +2892,7 @@
         <v>20170625</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>5</v>
@@ -2933,7 +2931,7 @@
         <v>28</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E38" s="1">
         <v>0</v>
@@ -2947,7 +2945,7 @@
         <v>20170626</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>5</v>
@@ -2983,7 +2981,7 @@
         <v>20170626</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>5</v>
@@ -3001,10 +2999,10 @@
         <v>20170626</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E42" s="1">
         <f t="shared" si="7"/>
@@ -3090,7 +3088,7 @@
         <v>20170627</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>5</v>
@@ -3108,7 +3106,7 @@
         <v>20170627</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>5</v>
@@ -3126,10 +3124,10 @@
         <v>20170628</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E49" s="1">
         <v>27.5</v>
@@ -3143,10 +3141,10 @@
         <v>20170629</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E50" s="1">
         <v>20</v>
@@ -3160,10 +3158,10 @@
         <v>20170629</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E51" s="1">
         <v>20</v>
@@ -3177,10 +3175,10 @@
         <v>20170630</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E52" s="1">
         <f>(68+5)/4+34/2</f>
@@ -3195,10 +3193,10 @@
         <v>20170630</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E53" s="1">
         <f>(68+5)/4+34/2</f>
@@ -3231,7 +3229,7 @@
         <v>20170630</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>5</v>
@@ -3249,7 +3247,7 @@
         <v>20170701</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>5</v>
@@ -3267,7 +3265,7 @@
         <v>20170701</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>5</v>
@@ -3285,7 +3283,7 @@
         <v>20170701</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>5</v>
@@ -3303,7 +3301,7 @@
         <v>20170701</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>5</v>
@@ -3321,7 +3319,7 @@
         <v>20170701</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>5</v>
@@ -3339,10 +3337,10 @@
         <v>20170702</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E61" s="1">
         <f>26+19.8</f>
@@ -3354,7 +3352,7 @@
         <v>20170703</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>5</v>
@@ -3372,7 +3370,7 @@
         <v>28</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E63" s="1">
         <f t="shared" ref="E63:E65" si="11">(70+73)/4</f>
@@ -3384,7 +3382,7 @@
         <v>20170703</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>5</v>
@@ -3399,10 +3397,10 @@
         <v>20170703</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E65" s="1">
         <f t="shared" si="11"/>
@@ -3414,7 +3412,7 @@
         <v>20170704</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>5</v>
@@ -3430,10 +3428,10 @@
         <v>20170704</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E67" s="1">
         <f t="shared" ref="E67:E68" si="12">92/3</f>
@@ -3445,7 +3443,7 @@
         <v>20170704</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>5</v>
@@ -3460,7 +3458,7 @@
         <v>20170704</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>5</v>
@@ -3475,10 +3473,10 @@
         <v>20170704</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E70" s="1">
         <f>50/3</f>
@@ -3490,10 +3488,10 @@
         <v>20170711</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E71" s="1">
         <f>12+252/5</f>
@@ -3505,10 +3503,10 @@
         <v>20170711</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E72" s="1">
         <f>252/5</f>
@@ -3520,10 +3518,10 @@
         <v>20170711</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E73" s="1">
         <f t="shared" ref="E73:E75" si="13">252/5</f>
@@ -3535,10 +3533,10 @@
         <v>20170711</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E74" s="1">
         <f t="shared" si="13"/>
@@ -3550,10 +3548,10 @@
         <v>20170711</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E75" s="1">
         <f t="shared" si="13"/>
@@ -3686,8 +3684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3874,7 +3872,7 @@
         <v>20170622</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E13" t="s">
         <v>24</v>
@@ -3891,7 +3889,7 @@
         <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -3916,7 +3914,7 @@
         <v>20170623</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E16" t="s">
         <v>24</v>
@@ -4017,7 +4015,7 @@
         <v>24</v>
       </c>
       <c r="E23" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
@@ -4087,7 +4085,7 @@
         <v>24</v>
       </c>
       <c r="E28" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
@@ -4126,7 +4124,7 @@
         <v>20170628</v>
       </c>
       <c r="D31" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>24</v>
@@ -4143,7 +4141,7 @@
         <v>24</v>
       </c>
       <c r="E32" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
@@ -4182,10 +4180,10 @@
         <v>20170630</v>
       </c>
       <c r="D35" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E35" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
@@ -4213,7 +4211,7 @@
         <v>24</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
@@ -4344,16 +4342,16 @@
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C47">
         <v>20170704</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.3">
@@ -4386,7 +4384,7 @@
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C50">
         <v>20170705</v>
@@ -4420,24 +4418,24 @@
         <v>20170705</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>195</v>
+        <v>238</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C53">
         <v>20170706</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.3">
@@ -4448,10 +4446,10 @@
         <v>20170706</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.3">
@@ -4462,24 +4460,24 @@
         <v>20170706</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C56">
         <v>20170707</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.3">
@@ -4490,10 +4488,10 @@
         <v>20170707</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.3">
@@ -4504,24 +4502,24 @@
         <v>20170707</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C59">
         <v>20170708</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.3">
@@ -4532,10 +4530,10 @@
         <v>20170708</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.3">
@@ -4546,24 +4544,24 @@
         <v>20170708</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C62">
         <v>20170709</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.3">
@@ -4574,10 +4572,10 @@
         <v>20170709</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.3">
@@ -4588,10 +4586,10 @@
         <v>20170709</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.3">
@@ -5027,10 +5025,10 @@
         <v>20170622</v>
       </c>
       <c r="D9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -5061,7 +5059,7 @@
         <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -5103,7 +5101,7 @@
         <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -5128,7 +5126,7 @@
         <v>20170626</v>
       </c>
       <c r="D16" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E16" t="s">
         <v>29</v>
@@ -5243,7 +5241,7 @@
         <v>29</v>
       </c>
       <c r="E24" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
@@ -5318,30 +5316,30 @@
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C30">
         <v>20170702</v>
       </c>
       <c r="D30" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E30" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C31">
         <v>20170702</v>
       </c>
       <c r="D31" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E31" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.3">
@@ -5358,7 +5356,7 @@
         <v>29</v>
       </c>
       <c r="G32" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
@@ -5377,30 +5375,30 @@
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C34">
         <v>20170703</v>
       </c>
       <c r="D34" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E34" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C35">
         <v>20170703</v>
       </c>
       <c r="D35" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E35" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.3">
@@ -5411,10 +5409,10 @@
         <v>20170704</v>
       </c>
       <c r="D36" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E36" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.3">
@@ -5425,24 +5423,24 @@
         <v>20170704</v>
       </c>
       <c r="D37" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E37" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C38">
         <v>20170704</v>
       </c>
       <c r="D38" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E38" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F38">
         <v>20170704</v>
@@ -5452,21 +5450,21 @@
         <v>142</v>
       </c>
       <c r="H38" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C39">
         <v>20170704</v>
       </c>
       <c r="D39" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E39" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F39">
         <v>20170705</v>
@@ -5475,7 +5473,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.3">
@@ -5486,10 +5484,10 @@
         <v>20170705</v>
       </c>
       <c r="D40" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E40" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F40">
         <v>20170706</v>
@@ -5498,7 +5496,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.3">
@@ -5509,38 +5507,38 @@
         <v>20170705</v>
       </c>
       <c r="D41" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E41" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C42">
         <v>20170705</v>
       </c>
       <c r="D42" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E42" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C43">
         <v>20170705</v>
       </c>
       <c r="D43" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E43" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.3">
@@ -5551,10 +5549,10 @@
         <v>20170706</v>
       </c>
       <c r="D44" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E44" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.3">
@@ -5565,38 +5563,38 @@
         <v>20170706</v>
       </c>
       <c r="D45" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E45" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C46">
         <v>20170706</v>
       </c>
       <c r="D46" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E46" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C47">
         <v>20170706</v>
       </c>
       <c r="D47" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E47" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.3">
@@ -5607,10 +5605,10 @@
         <v>20170707</v>
       </c>
       <c r="D48" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E48" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.3">
@@ -5621,38 +5619,38 @@
         <v>20170707</v>
       </c>
       <c r="D49" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E49" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C50">
         <v>20170707</v>
       </c>
       <c r="D50" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E50" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C51">
         <v>20170707</v>
       </c>
       <c r="D51" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E51" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.3">
@@ -5663,10 +5661,10 @@
         <v>20170708</v>
       </c>
       <c r="D52" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E52" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.3">
@@ -5677,38 +5675,38 @@
         <v>20170708</v>
       </c>
       <c r="D53" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E53" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C54">
         <v>20170708</v>
       </c>
       <c r="D54" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E54" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C55">
         <v>20170708</v>
       </c>
       <c r="D55" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E55" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.3">
@@ -5719,10 +5717,10 @@
         <v>20170709</v>
       </c>
       <c r="D56" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E56" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.3">
@@ -5733,38 +5731,38 @@
         <v>20170709</v>
       </c>
       <c r="D57" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E57" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C58">
         <v>20170709</v>
       </c>
       <c r="D58" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E58" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C59">
         <v>20170709</v>
       </c>
       <c r="D59" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E59" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.3">
@@ -5797,7 +5795,7 @@
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C62">
         <v>20170710</v>
@@ -5811,7 +5809,7 @@
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C63">
         <v>20170710</v>
@@ -5853,7 +5851,7 @@
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C66">
         <v>20170711</v>
@@ -5867,7 +5865,7 @@
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C67">
         <v>20170711</v>
@@ -5909,7 +5907,7 @@
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C70">
         <v>20170712</v>
@@ -5923,7 +5921,7 @@
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C71">
         <v>20170712</v>
@@ -5965,7 +5963,7 @@
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C74">
         <v>20170713</v>
@@ -5979,7 +5977,7 @@
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C75">
         <v>20170713</v>
@@ -6081,16 +6079,16 @@
         <v>20170622</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E4">
         <v>200.2</v>
       </c>
       <c r="F4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -6101,16 +6099,16 @@
         <v>20170623</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E5" s="1">
         <v>-1000</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -6121,10 +6119,10 @@
         <v>20170624</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E6" s="1">
         <v>217.69</v>
@@ -6141,16 +6139,16 @@
         <v>20170710</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E7" s="1">
         <v>180</v>
       </c>
       <c r="F7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -6161,16 +6159,16 @@
         <v>20170708</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E8" s="1">
         <v>51.9</v>
       </c>
       <c r="F8" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -6199,19 +6197,19 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -6222,10 +6220,10 @@
         <v>20170622</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E2">
         <v>99</v>
@@ -6239,10 +6237,10 @@
         <v>20170624</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E3">
         <v>40.299999999999997</v>
@@ -6256,10 +6254,10 @@
         <v>20170623</v>
       </c>
       <c r="C4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E4">
         <v>56</v>
@@ -6273,16 +6271,16 @@
         <v>20170625</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E5">
         <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -6293,16 +6291,16 @@
         <v>20170626</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E6" s="1">
         <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -6313,16 +6311,16 @@
         <v>20170626</v>
       </c>
       <c r="C7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E7">
         <v>47.4</v>
       </c>
       <c r="F7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -6333,17 +6331,17 @@
         <v>20170627</v>
       </c>
       <c r="C8" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D8" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E8">
         <f>42</f>
         <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -6354,16 +6352,16 @@
         <v>20170628</v>
       </c>
       <c r="C9" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D9" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E9">
         <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -6374,16 +6372,16 @@
         <v>20170628</v>
       </c>
       <c r="C10" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D10" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E10">
         <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -6394,16 +6392,16 @@
         <v>20170628</v>
       </c>
       <c r="C11" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D11" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E11">
         <v>46</v>
       </c>
       <c r="F11" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -6414,16 +6412,16 @@
         <v>20170628</v>
       </c>
       <c r="C12" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D12" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E12">
         <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -6434,16 +6432,16 @@
         <v>20170629</v>
       </c>
       <c r="C13" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D13" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E13">
         <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -6454,16 +6452,16 @@
         <v>20170629</v>
       </c>
       <c r="C14" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D14" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E14">
         <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -6474,16 +6472,16 @@
         <v>20170630</v>
       </c>
       <c r="C15" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D15" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E15">
         <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -6491,16 +6489,16 @@
         <v>20170702</v>
       </c>
       <c r="C16" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D16" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E16">
         <v>40</v>
       </c>
       <c r="F16" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
@@ -6508,16 +6506,16 @@
         <v>20170708</v>
       </c>
       <c r="C17" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D17" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E17">
         <v>35</v>
       </c>
       <c r="F17" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
@@ -6525,10 +6523,10 @@
         <v>20170709</v>
       </c>
       <c r="C18" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D18" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E18">
         <v>36</v>
@@ -6539,16 +6537,16 @@
         <v>20170709</v>
       </c>
       <c r="C19" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D19" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E19">
         <v>19</v>
       </c>
       <c r="F19" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
@@ -6556,16 +6554,16 @@
         <v>20170710</v>
       </c>
       <c r="C20" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D20" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E20">
         <v>36</v>
       </c>
       <c r="F20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
@@ -6573,16 +6571,16 @@
         <v>20170711</v>
       </c>
       <c r="C21" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D21" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E21">
         <v>40</v>
       </c>
       <c r="F21" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
@@ -6590,16 +6588,16 @@
         <v>20170712</v>
       </c>
       <c r="C22" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D22" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E22">
         <v>35</v>
       </c>
       <c r="F22" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
@@ -6607,16 +6605,16 @@
         <v>20170713</v>
       </c>
       <c r="C23" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D23" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E23">
         <v>98</v>
       </c>
       <c r="F23" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/莆田项目部公共开支明细表数据库版本20170619起.xlsx
+++ b/莆田项目部公共开支明细表数据库版本20170619起.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15140" windowHeight="6690" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15140" windowHeight="6690" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="逐日消费统计表" sheetId="5" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">公共消费权重表!$C$1:$C$65</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">莆田维养项目部签到表!$B$1:$B$108</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">人员固定消费表!$C$1:$C$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">逐日消费统计表!$D$1:$D$32</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="240">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -316,10 +317,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>燃起65m³</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>林迪南</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -979,6 +976,14 @@
   </si>
   <si>
     <t>福州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃气65m³</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1336,8 +1341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:D12"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1380,7 +1385,7 @@
         <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>32</v>
@@ -1401,7 +1406,7 @@
         <v>571.29999999999995</v>
       </c>
       <c r="D3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>57</v>
@@ -1422,13 +1427,13 @@
         <v>195</v>
       </c>
       <c r="D4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>59</v>
       </c>
       <c r="F4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1443,7 +1448,7 @@
         <v>236</v>
       </c>
       <c r="D5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>64</v>
@@ -1464,13 +1469,13 @@
         <v>156.78</v>
       </c>
       <c r="D6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1485,13 +1490,13 @@
         <v>135.30000000000001</v>
       </c>
       <c r="D7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1506,13 +1511,13 @@
         <v>124.5</v>
       </c>
       <c r="D8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" t="s">
         <v>102</v>
-      </c>
-      <c r="F8" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1527,10 +1532,10 @@
         <v>244.97</v>
       </c>
       <c r="D9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1545,13 +1550,13 @@
         <v>162</v>
       </c>
       <c r="D10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1566,10 +1571,10 @@
         <v>27.5</v>
       </c>
       <c r="D11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -1584,13 +1589,13 @@
         <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F12" t="s">
         <v>141</v>
-      </c>
-      <c r="F12" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1605,10 +1610,10 @@
         <v>227.4</v>
       </c>
       <c r="D13" t="s">
+        <v>153</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1623,10 +1628,10 @@
         <v>252.79000000000002</v>
       </c>
       <c r="D14" t="s">
+        <v>161</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -1641,10 +1646,10 @@
         <v>45.8</v>
       </c>
       <c r="D15" t="s">
+        <v>167</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1659,10 +1664,10 @@
         <v>143</v>
       </c>
       <c r="D16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1677,7 +1682,7 @@
         <v>142</v>
       </c>
       <c r="D17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>3</v>
@@ -1694,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>3</v>
@@ -1711,10 +1716,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1728,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="s">
+        <v>192</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1745,10 +1750,10 @@
         <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1763,13 +1768,13 @@
         <v>121.9</v>
       </c>
       <c r="D22" t="s">
+        <v>195</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="F22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1783,13 +1788,16 @@
         <v>0</v>
       </c>
       <c r="D23" t="s">
+        <v>206</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>208</v>
-      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
       <c r="B24">
         <v>20170711</v>
       </c>
@@ -1798,16 +1806,19 @@
         <v>272.89999999999998</v>
       </c>
       <c r="D24" t="s">
+        <v>215</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>217</v>
-      </c>
       <c r="F24" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
       <c r="B25">
         <v>20170712</v>
       </c>
@@ -1815,13 +1826,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
       <c r="B26">
         <v>20170713</v>
       </c>
@@ -1829,13 +1843,17 @@
         <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <f>SUM(C2:C26)</f>
+        <v>3194.1400000000003</v>
+      </c>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1865,7 +1883,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2007,7 +2025,7 @@
         <v>20170626</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D9">
         <v>244.97</v>
@@ -2021,7 +2039,7 @@
         <v>20170627</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D10">
         <f>55+32+75</f>
@@ -2036,7 +2054,7 @@
         <v>20170628</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D11">
         <v>27.5</v>
@@ -2050,7 +2068,7 @@
         <v>20170629</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D12">
         <v>28</v>
@@ -2064,7 +2082,7 @@
         <v>20170630</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D13">
         <f>120.4+68+5+34</f>
@@ -2128,7 +2146,7 @@
         <v>20170705</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -2183,7 +2201,7 @@
         <v>20170710</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D23">
         <v>272.89999999999998</v>
@@ -2203,8 +2221,13 @@
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25"/>
-      <c r="C25" s="1"/>
-      <c r="D25"/>
+      <c r="C25" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D25">
+        <f>SUM(D2:D24)</f>
+        <v>3333.1400000000003</v>
+      </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26"/>
@@ -2237,7 +2260,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="E72" sqref="E72:E75"/>
     </sheetView>
   </sheetViews>
@@ -2677,7 +2700,7 @@
         <v>20170623</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>5</v>
@@ -2695,7 +2718,7 @@
         <v>20170623</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>5</v>
@@ -2713,7 +2736,7 @@
         <v>20170623</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>5</v>
@@ -2731,10 +2754,10 @@
         <v>20170623</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="E27" s="1">
         <v>14</v>
@@ -2766,7 +2789,7 @@
         <v>20170624</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>5</v>
@@ -2784,7 +2807,7 @@
         <v>20170624</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>5</v>
@@ -2802,7 +2825,7 @@
         <v>20170624</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>5</v>
@@ -2838,10 +2861,10 @@
         <v>20170625</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="E33" s="1">
         <f t="shared" ref="E33:E36" si="6">88/5</f>
@@ -2856,7 +2879,7 @@
         <v>20170625</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>5</v>
@@ -2874,7 +2897,7 @@
         <v>20170625</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>5</v>
@@ -2892,7 +2915,7 @@
         <v>20170625</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>5</v>
@@ -2931,7 +2954,7 @@
         <v>28</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E38" s="1">
         <v>0</v>
@@ -2945,7 +2968,7 @@
         <v>20170626</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>5</v>
@@ -2981,7 +3004,7 @@
         <v>20170626</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>5</v>
@@ -2999,10 +3022,10 @@
         <v>20170626</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="E42" s="1">
         <f t="shared" si="7"/>
@@ -3088,7 +3111,7 @@
         <v>20170627</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>5</v>
@@ -3106,7 +3129,7 @@
         <v>20170627</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>5</v>
@@ -3124,10 +3147,10 @@
         <v>20170628</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="E49" s="1">
         <v>27.5</v>
@@ -3141,10 +3164,10 @@
         <v>20170629</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E50" s="1">
         <v>20</v>
@@ -3158,10 +3181,10 @@
         <v>20170629</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="E51" s="1">
         <v>20</v>
@@ -3178,7 +3201,7 @@
         <v>64</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E52" s="1">
         <f>(68+5)/4+34/2</f>
@@ -3193,10 +3216,10 @@
         <v>20170630</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E53" s="1">
         <f>(68+5)/4+34/2</f>
@@ -3229,7 +3252,7 @@
         <v>20170630</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>5</v>
@@ -3247,7 +3270,7 @@
         <v>20170701</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>5</v>
@@ -3265,7 +3288,7 @@
         <v>20170701</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>5</v>
@@ -3283,7 +3306,7 @@
         <v>20170701</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>5</v>
@@ -3301,7 +3324,7 @@
         <v>20170701</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>5</v>
@@ -3319,7 +3342,7 @@
         <v>20170701</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>5</v>
@@ -3337,10 +3360,10 @@
         <v>20170702</v>
       </c>
       <c r="C61" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="E61" s="1">
         <f>26+19.8</f>
@@ -3352,7 +3375,7 @@
         <v>20170703</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>5</v>
@@ -3370,7 +3393,7 @@
         <v>28</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E63" s="1">
         <f t="shared" ref="E63:E65" si="11">(70+73)/4</f>
@@ -3382,7 +3405,7 @@
         <v>20170703</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>5</v>
@@ -3397,10 +3420,10 @@
         <v>20170703</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E65" s="1">
         <f t="shared" si="11"/>
@@ -3412,7 +3435,7 @@
         <v>20170704</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>5</v>
@@ -3428,10 +3451,10 @@
         <v>20170704</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E67" s="1">
         <f t="shared" ref="E67:E68" si="12">92/3</f>
@@ -3443,7 +3466,7 @@
         <v>20170704</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>5</v>
@@ -3458,7 +3481,7 @@
         <v>20170704</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>5</v>
@@ -3473,10 +3496,10 @@
         <v>20170704</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E70" s="1">
         <f>50/3</f>
@@ -3488,10 +3511,10 @@
         <v>20170711</v>
       </c>
       <c r="C71" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="E71" s="1">
         <f>12+252/5</f>
@@ -3503,10 +3526,10 @@
         <v>20170711</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E72" s="1">
         <f>252/5</f>
@@ -3518,10 +3541,10 @@
         <v>20170711</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E73" s="1">
         <f t="shared" ref="E73:E75" si="13">252/5</f>
@@ -3533,10 +3556,10 @@
         <v>20170711</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E74" s="1">
         <f t="shared" si="13"/>
@@ -3548,10 +3571,10 @@
         <v>20170711</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E75" s="1">
         <f t="shared" si="13"/>
@@ -3570,7 +3593,7 @@
   <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3684,7 +3707,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
@@ -3872,7 +3895,7 @@
         <v>20170622</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E13" t="s">
         <v>24</v>
@@ -3889,7 +3912,7 @@
         <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -3914,7 +3937,7 @@
         <v>20170623</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E16" t="s">
         <v>24</v>
@@ -4015,7 +4038,7 @@
         <v>24</v>
       </c>
       <c r="E23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
@@ -4085,7 +4108,7 @@
         <v>24</v>
       </c>
       <c r="E28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
@@ -4124,7 +4147,7 @@
         <v>20170628</v>
       </c>
       <c r="D31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>24</v>
@@ -4141,7 +4164,7 @@
         <v>24</v>
       </c>
       <c r="E32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
@@ -4180,10 +4203,10 @@
         <v>20170630</v>
       </c>
       <c r="D35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
@@ -4211,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
@@ -4342,16 +4365,16 @@
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C47">
         <v>20170704</v>
       </c>
       <c r="D47" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="E47" s="6" t="s">
         <v>189</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.3">
@@ -4384,7 +4407,7 @@
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C50">
         <v>20170705</v>
@@ -4418,24 +4441,24 @@
         <v>20170705</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C53">
         <v>20170706</v>
       </c>
       <c r="D53" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E53" s="6" t="s">
         <v>190</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.3">
@@ -4446,10 +4469,10 @@
         <v>20170706</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.3">
@@ -4460,24 +4483,24 @@
         <v>20170706</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C56">
         <v>20170707</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.3">
@@ -4488,10 +4511,10 @@
         <v>20170707</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.3">
@@ -4502,24 +4525,24 @@
         <v>20170707</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C59">
         <v>20170708</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.3">
@@ -4530,10 +4553,10 @@
         <v>20170708</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.3">
@@ -4544,24 +4567,24 @@
         <v>20170708</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C62">
         <v>20170709</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.3">
@@ -4572,10 +4595,10 @@
         <v>20170709</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.3">
@@ -4586,10 +4609,10 @@
         <v>20170709</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.3">
@@ -4887,7 +4910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="C72" sqref="C72:C75"/>
     </sheetView>
   </sheetViews>
@@ -5028,7 +5051,7 @@
         <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -5059,7 +5082,7 @@
         <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -5101,7 +5124,7 @@
         <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -5126,7 +5149,7 @@
         <v>20170626</v>
       </c>
       <c r="D16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E16" t="s">
         <v>29</v>
@@ -5241,7 +5264,7 @@
         <v>29</v>
       </c>
       <c r="E24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
@@ -5316,30 +5339,30 @@
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C30">
         <v>20170702</v>
       </c>
       <c r="D30" t="s">
+        <v>171</v>
+      </c>
+      <c r="E30" t="s">
         <v>172</v>
-      </c>
-      <c r="E30" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C31">
         <v>20170702</v>
       </c>
       <c r="D31" t="s">
+        <v>171</v>
+      </c>
+      <c r="E31" t="s">
         <v>172</v>
-      </c>
-      <c r="E31" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.3">
@@ -5356,7 +5379,7 @@
         <v>29</v>
       </c>
       <c r="G32" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
@@ -5375,30 +5398,30 @@
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C34">
         <v>20170703</v>
       </c>
       <c r="D34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C35">
         <v>20170703</v>
       </c>
       <c r="D35" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E35" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.3">
@@ -5409,10 +5432,10 @@
         <v>20170704</v>
       </c>
       <c r="D36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E36" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.3">
@@ -5423,24 +5446,24 @@
         <v>20170704</v>
       </c>
       <c r="D37" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E37" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C38">
         <v>20170704</v>
       </c>
       <c r="D38" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E38" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F38">
         <v>20170704</v>
@@ -5450,21 +5473,21 @@
         <v>142</v>
       </c>
       <c r="H38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C39">
         <v>20170704</v>
       </c>
       <c r="D39" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E39" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F39">
         <v>20170705</v>
@@ -5473,7 +5496,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.3">
@@ -5484,10 +5507,10 @@
         <v>20170705</v>
       </c>
       <c r="D40" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E40" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F40">
         <v>20170706</v>
@@ -5496,7 +5519,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.3">
@@ -5507,38 +5530,38 @@
         <v>20170705</v>
       </c>
       <c r="D41" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E41" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C42">
         <v>20170705</v>
       </c>
       <c r="D42" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E42" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C43">
         <v>20170705</v>
       </c>
       <c r="D43" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E43" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.3">
@@ -5549,10 +5572,10 @@
         <v>20170706</v>
       </c>
       <c r="D44" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E44" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.3">
@@ -5563,38 +5586,38 @@
         <v>20170706</v>
       </c>
       <c r="D45" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E45" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C46">
         <v>20170706</v>
       </c>
       <c r="D46" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E46" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C47">
         <v>20170706</v>
       </c>
       <c r="D47" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E47" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.3">
@@ -5605,10 +5628,10 @@
         <v>20170707</v>
       </c>
       <c r="D48" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E48" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.3">
@@ -5619,38 +5642,38 @@
         <v>20170707</v>
       </c>
       <c r="D49" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E49" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C50">
         <v>20170707</v>
       </c>
       <c r="D50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C51">
         <v>20170707</v>
       </c>
       <c r="D51" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E51" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.3">
@@ -5661,10 +5684,10 @@
         <v>20170708</v>
       </c>
       <c r="D52" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E52" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.3">
@@ -5675,38 +5698,38 @@
         <v>20170708</v>
       </c>
       <c r="D53" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E53" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C54">
         <v>20170708</v>
       </c>
       <c r="D54" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E54" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C55">
         <v>20170708</v>
       </c>
       <c r="D55" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E55" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.3">
@@ -5717,10 +5740,10 @@
         <v>20170709</v>
       </c>
       <c r="D56" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E56" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.3">
@@ -5731,38 +5754,38 @@
         <v>20170709</v>
       </c>
       <c r="D57" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E57" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C58">
         <v>20170709</v>
       </c>
       <c r="D58" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E58" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C59">
         <v>20170709</v>
       </c>
       <c r="D59" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E59" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.3">
@@ -5795,7 +5818,7 @@
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C62">
         <v>20170710</v>
@@ -5809,7 +5832,7 @@
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C63">
         <v>20170710</v>
@@ -5851,7 +5874,7 @@
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C66">
         <v>20170711</v>
@@ -5865,7 +5888,7 @@
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C67">
         <v>20170711</v>
@@ -5907,7 +5930,7 @@
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C70">
         <v>20170712</v>
@@ -5921,7 +5944,7 @@
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C71">
         <v>20170712</v>
@@ -5963,7 +5986,7 @@
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C74">
         <v>20170713</v>
@@ -5977,7 +6000,7 @@
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C75">
         <v>20170713</v>
@@ -6000,8 +6023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6082,13 +6105,13 @@
         <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>239</v>
       </c>
       <c r="E4">
         <v>200.2</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -6099,16 +6122,16 @@
         <v>20170623</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="E5" s="1">
         <v>-1000</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -6119,10 +6142,10 @@
         <v>20170624</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="E6" s="1">
         <v>217.69</v>
@@ -6139,16 +6162,16 @@
         <v>20170710</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>210</v>
       </c>
       <c r="E7" s="1">
         <v>180</v>
       </c>
       <c r="F7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -6159,16 +6182,16 @@
         <v>20170708</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="E8" s="1">
         <v>51.9</v>
       </c>
       <c r="F8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -6197,19 +6220,19 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" t="s">
         <v>90</v>
       </c>
-      <c r="C1" t="s">
-        <v>91</v>
-      </c>
       <c r="D1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -6220,10 +6243,10 @@
         <v>20170622</v>
       </c>
       <c r="C2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" t="s">
         <v>86</v>
-      </c>
-      <c r="D2" t="s">
-        <v>87</v>
       </c>
       <c r="E2">
         <v>99</v>
@@ -6237,10 +6260,10 @@
         <v>20170624</v>
       </c>
       <c r="C3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" t="s">
         <v>92</v>
-      </c>
-      <c r="D3" t="s">
-        <v>93</v>
       </c>
       <c r="E3">
         <v>40.299999999999997</v>
@@ -6254,10 +6277,10 @@
         <v>20170623</v>
       </c>
       <c r="C4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" t="s">
         <v>107</v>
-      </c>
-      <c r="D4" t="s">
-        <v>108</v>
       </c>
       <c r="E4">
         <v>56</v>
@@ -6271,16 +6294,16 @@
         <v>20170625</v>
       </c>
       <c r="C5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E5">
         <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -6291,16 +6314,16 @@
         <v>20170626</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E6" s="1">
         <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -6311,16 +6334,16 @@
         <v>20170626</v>
       </c>
       <c r="C7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E7">
         <v>47.4</v>
       </c>
       <c r="F7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -6331,17 +6354,17 @@
         <v>20170627</v>
       </c>
       <c r="C8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" t="s">
         <v>122</v>
-      </c>
-      <c r="D8" t="s">
-        <v>123</v>
       </c>
       <c r="E8">
         <f>42</f>
         <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -6352,16 +6375,16 @@
         <v>20170628</v>
       </c>
       <c r="C9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" t="s">
         <v>131</v>
-      </c>
-      <c r="D9" t="s">
-        <v>132</v>
       </c>
       <c r="E9">
         <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -6372,16 +6395,16 @@
         <v>20170628</v>
       </c>
       <c r="C10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E10">
         <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -6392,16 +6415,16 @@
         <v>20170628</v>
       </c>
       <c r="C11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E11">
         <v>46</v>
       </c>
       <c r="F11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -6412,16 +6435,16 @@
         <v>20170628</v>
       </c>
       <c r="C12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E12">
         <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -6432,16 +6455,16 @@
         <v>20170629</v>
       </c>
       <c r="C13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13" t="s">
         <v>148</v>
-      </c>
-      <c r="D13" t="s">
-        <v>149</v>
       </c>
       <c r="E13">
         <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -6452,16 +6475,16 @@
         <v>20170629</v>
       </c>
       <c r="C14" t="s">
+        <v>150</v>
+      </c>
+      <c r="D14" t="s">
         <v>151</v>
-      </c>
-      <c r="D14" t="s">
-        <v>152</v>
       </c>
       <c r="E14">
         <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -6472,16 +6495,16 @@
         <v>20170630</v>
       </c>
       <c r="C15" t="s">
+        <v>158</v>
+      </c>
+      <c r="D15" t="s">
         <v>159</v>
-      </c>
-      <c r="D15" t="s">
-        <v>160</v>
       </c>
       <c r="E15">
         <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -6489,16 +6512,16 @@
         <v>20170702</v>
       </c>
       <c r="C16" t="s">
+        <v>174</v>
+      </c>
+      <c r="D16" t="s">
         <v>175</v>
-      </c>
-      <c r="D16" t="s">
-        <v>176</v>
       </c>
       <c r="E16">
         <v>40</v>
       </c>
       <c r="F16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
@@ -6506,16 +6529,16 @@
         <v>20170708</v>
       </c>
       <c r="C17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D17" t="s">
         <v>199</v>
-      </c>
-      <c r="D17" t="s">
-        <v>200</v>
       </c>
       <c r="E17">
         <v>35</v>
       </c>
       <c r="F17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
@@ -6523,10 +6546,10 @@
         <v>20170709</v>
       </c>
       <c r="C18" t="s">
+        <v>201</v>
+      </c>
+      <c r="D18" t="s">
         <v>202</v>
-      </c>
-      <c r="D18" t="s">
-        <v>203</v>
       </c>
       <c r="E18">
         <v>36</v>
@@ -6537,16 +6560,16 @@
         <v>20170709</v>
       </c>
       <c r="C19" t="s">
+        <v>203</v>
+      </c>
+      <c r="D19" t="s">
         <v>204</v>
-      </c>
-      <c r="D19" t="s">
-        <v>205</v>
       </c>
       <c r="E19">
         <v>19</v>
       </c>
       <c r="F19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
@@ -6554,16 +6577,16 @@
         <v>20170710</v>
       </c>
       <c r="C20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E20">
         <v>36</v>
       </c>
       <c r="F20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
@@ -6571,16 +6594,16 @@
         <v>20170711</v>
       </c>
       <c r="C21" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D21" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E21">
         <v>40</v>
       </c>
       <c r="F21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
@@ -6588,16 +6611,16 @@
         <v>20170712</v>
       </c>
       <c r="C22" t="s">
+        <v>224</v>
+      </c>
+      <c r="D22" t="s">
         <v>225</v>
-      </c>
-      <c r="D22" t="s">
-        <v>226</v>
       </c>
       <c r="E22">
         <v>35</v>
       </c>
       <c r="F22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
@@ -6605,16 +6628,16 @@
         <v>20170713</v>
       </c>
       <c r="C23" t="s">
+        <v>227</v>
+      </c>
+      <c r="D23" t="s">
         <v>228</v>
-      </c>
-      <c r="D23" t="s">
-        <v>229</v>
       </c>
       <c r="E23">
         <v>98</v>
       </c>
       <c r="F23" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
